--- a/dls_set/control/cycle6/2.xlsx
+++ b/dls_set/control/cycle6/2.xlsx
@@ -198,10 +198,10 @@
         <v>2.1544346809387207</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0085202213376760483</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>0.019051793962717056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -209,10 +209,10 @@
         <v>2.4770762920379639</v>
       </c>
       <c r="B13" s="0">
-        <v>0.037700973451137543</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>0.084301941096782684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -220,10 +220,10 @@
         <v>2.8480358123779297</v>
       </c>
       <c r="B14" s="0">
-        <v>0.14066961407661438</v>
+        <v>0.095590680837631226</v>
       </c>
       <c r="C14" s="0">
-        <v>0.16757127642631531</v>
+        <v>0.071805007755756378</v>
       </c>
     </row>
     <row r="15">
@@ -231,10 +231,10 @@
         <v>3.2745490074157715</v>
       </c>
       <c r="B15" s="0">
-        <v>0.5199618935585022</v>
+        <v>0.60643035173416138</v>
       </c>
       <c r="C15" s="0">
-        <v>0.24355369806289673</v>
+        <v>0.097744680941104889</v>
       </c>
     </row>
     <row r="16">
@@ -242,10 +242,10 @@
         <v>3.7649359703063965</v>
       </c>
       <c r="B16" s="0">
-        <v>1.1903220415115356</v>
+        <v>1.4987994432449341</v>
       </c>
       <c r="C16" s="0">
-        <v>0.52545011043548584</v>
+        <v>0.40017604827880859</v>
       </c>
     </row>
     <row r="17">
@@ -253,10 +253,10 @@
         <v>4.3287615776062012</v>
       </c>
       <c r="B17" s="0">
-        <v>2.0061936378479004</v>
+        <v>2.5590324401855469</v>
       </c>
       <c r="C17" s="0">
-        <v>0.963613748550415</v>
+        <v>0.84054863452911377</v>
       </c>
     </row>
     <row r="18">
@@ -264,10 +264,10 @@
         <v>4.9770236015319824</v>
       </c>
       <c r="B18" s="0">
-        <v>2.7710058689117432</v>
+        <v>3.5279166698455811</v>
       </c>
       <c r="C18" s="0">
-        <v>1.3984750509262085</v>
+        <v>1.2723718881607056</v>
       </c>
     </row>
     <row r="19">
@@ -275,10 +275,10 @@
         <v>5.7223672866821289</v>
       </c>
       <c r="B19" s="0">
-        <v>3.31351375579834</v>
+        <v>4.19200325012207</v>
       </c>
       <c r="C19" s="0">
-        <v>1.6994274854660034</v>
+        <v>1.5764970779418945</v>
       </c>
     </row>
     <row r="20">
@@ -286,10 +286,10 @@
         <v>6.57933235168457</v>
       </c>
       <c r="B20" s="0">
-        <v>3.5313930511474609</v>
+        <v>4.4326229095458984</v>
       </c>
       <c r="C20" s="0">
-        <v>1.7874963283538818</v>
+        <v>1.6798771619796753</v>
       </c>
     </row>
     <row r="21">
@@ -297,10 +297,10 @@
         <v>7.5646333694458008</v>
       </c>
       <c r="B21" s="0">
-        <v>3.4056062698364258</v>
+        <v>4.2379312515258789</v>
       </c>
       <c r="C21" s="0">
-        <v>1.6483701467514038</v>
+        <v>1.5659104585647583</v>
       </c>
     </row>
     <row r="22">
@@ -308,10 +308,10 @@
         <v>8.6974897384643555</v>
       </c>
       <c r="B22" s="0">
-        <v>2.9916837215423584</v>
+        <v>3.6868877410888672</v>
       </c>
       <c r="C22" s="0">
-        <v>1.3314964771270752</v>
+        <v>1.2697107791900635</v>
       </c>
     </row>
     <row r="23">
@@ -319,10 +319,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="0">
-        <v>2.3956887722015381</v>
+        <v>2.9160935878753662</v>
       </c>
       <c r="C23" s="0">
-        <v>0.93847697973251343</v>
+        <v>0.86359214782714844</v>
       </c>
     </row>
     <row r="24">
@@ -330,10 +330,10 @@
         <v>11.497570037841797</v>
       </c>
       <c r="B24" s="0">
-        <v>1.7430351972579956</v>
+        <v>2.0806283950805664</v>
       </c>
       <c r="C24" s="0">
-        <v>0.60856759548187256</v>
+        <v>0.44081589579582214</v>
       </c>
     </row>
     <row r="25">
@@ -341,10 +341,10 @@
         <v>13.21941089630127</v>
       </c>
       <c r="B25" s="0">
-        <v>1.1475373506546021</v>
+        <v>1.3184617757797241</v>
       </c>
       <c r="C25" s="0">
-        <v>0.4675154983997345</v>
+        <v>0.14586842060089111</v>
       </c>
     </row>
     <row r="26">
@@ -352,10 +352,10 @@
         <v>15.199110984802246</v>
       </c>
       <c r="B26" s="0">
-        <v>0.6862945556640625</v>
+        <v>0.725055456161499</v>
       </c>
       <c r="C26" s="0">
-        <v>0.44846469163894653</v>
+        <v>0.24480704963207245</v>
       </c>
     </row>
     <row r="27">
@@ -363,10 +363,10 @@
         <v>17.475282669067383</v>
       </c>
       <c r="B27" s="0">
-        <v>0.38364711403846741</v>
+        <v>0.341017484664917</v>
       </c>
       <c r="C27" s="0">
-        <v>0.39380824565887451</v>
+        <v>0.32096239924430847</v>
       </c>
     </row>
     <row r="28">
@@ -374,10 +374,10 @@
         <v>20.092329025268555</v>
       </c>
       <c r="B28" s="0">
-        <v>0.2048848420381546</v>
+        <v>0.15187500417232513</v>
       </c>
       <c r="C28" s="0">
-        <v>0.27703550457954407</v>
+        <v>0.2630552351474762</v>
       </c>
     </row>
     <row r="29">
@@ -385,10 +385,10 @@
         <v>23.101297378540039</v>
       </c>
       <c r="B29" s="0">
-        <v>0.14519943296909332</v>
+        <v>0.0958925187587738</v>
       </c>
       <c r="C29" s="0">
-        <v>0.11464661359786987</v>
+        <v>0.1247498095035553</v>
       </c>
     </row>
     <row r="30">
@@ -396,10 +396,10 @@
         <v>26.560878753662109</v>
       </c>
       <c r="B30" s="0">
-        <v>0.16508221626281738</v>
+        <v>0.10026177763938904</v>
       </c>
       <c r="C30" s="0">
-        <v>0.18307894468307495</v>
+        <v>0.11439704149961472</v>
       </c>
     </row>
     <row r="31">
@@ -407,10 +407,10 @@
         <v>30.538555145263672</v>
       </c>
       <c r="B31" s="0">
-        <v>0.23172196745872498</v>
+        <v>0.14344993233680725</v>
       </c>
       <c r="C31" s="0">
-        <v>0.33432331681251526</v>
+        <v>0.24846257269382477</v>
       </c>
     </row>
     <row r="32">
@@ -418,10 +418,10 @@
         <v>35.111915588378906</v>
       </c>
       <c r="B32" s="0">
-        <v>0.29022613167762756</v>
+        <v>0.19715073704719543</v>
       </c>
       <c r="C32" s="0">
-        <v>0.40856659412384033</v>
+        <v>0.34147509932518005</v>
       </c>
     </row>
     <row r="33">
@@ -429,10 +429,10 @@
         <v>40.370170593261719</v>
       </c>
       <c r="B33" s="0">
-        <v>0.296677827835083</v>
+        <v>0.23501701653003693</v>
       </c>
       <c r="C33" s="0">
-        <v>0.39036661386489868</v>
+        <v>0.37291008234024048</v>
       </c>
     </row>
     <row r="34">
@@ -440,10 +440,10 @@
         <v>46.415889739990234</v>
       </c>
       <c r="B34" s="0">
-        <v>0.25854074954986572</v>
+        <v>0.2598978579044342</v>
       </c>
       <c r="C34" s="0">
-        <v>0.30104756355285645</v>
+        <v>0.33979034423828125</v>
       </c>
     </row>
     <row r="35">
@@ -451,10 +451,10 @@
         <v>53.366992950439453</v>
       </c>
       <c r="B35" s="0">
-        <v>0.20778733491897583</v>
+        <v>0.26955568790435791</v>
       </c>
       <c r="C35" s="0">
-        <v>0.22073923051357269</v>
+        <v>0.2768130898475647</v>
       </c>
     </row>
     <row r="36">
@@ -462,10 +462,10 @@
         <v>61.359073638916016</v>
       </c>
       <c r="B36" s="0">
-        <v>0.19052940607070923</v>
+        <v>0.26068574190139771</v>
       </c>
       <c r="C36" s="0">
-        <v>0.19786292314529419</v>
+        <v>0.22927513718605042</v>
       </c>
     </row>
     <row r="37">
@@ -473,10 +473,10 @@
         <v>70.548027038574219</v>
       </c>
       <c r="B37" s="0">
-        <v>0.21378733217716217</v>
+        <v>0.23236016929149628</v>
       </c>
       <c r="C37" s="0">
-        <v>0.19650323688983917</v>
+        <v>0.2033819854259491</v>
       </c>
     </row>
     <row r="38">
@@ -484,10 +484,10 @@
         <v>81.113082885742188</v>
       </c>
       <c r="B38" s="0">
-        <v>0.22276955842971802</v>
+        <v>0.18875923752784729</v>
       </c>
       <c r="C38" s="0">
-        <v>0.23174493014812469</v>
+        <v>0.16767686605453491</v>
       </c>
     </row>
     <row r="39">
@@ -495,10 +495,10 @@
         <v>93.260330200195313</v>
       </c>
       <c r="B39" s="0">
-        <v>0.20609283447265625</v>
+        <v>0.14033815264701843</v>
       </c>
       <c r="C39" s="0">
-        <v>0.24894103407859802</v>
+        <v>0.12195190787315369</v>
       </c>
     </row>
     <row r="40">
@@ -506,10 +506,10 @@
         <v>107.22672271728516</v>
       </c>
       <c r="B40" s="0">
-        <v>0.16518902778625488</v>
+        <v>0.10195136815309525</v>
       </c>
       <c r="C40" s="0">
-        <v>0.21999028325080872</v>
+        <v>0.11904421448707581</v>
       </c>
     </row>
     <row r="41">
@@ -517,10 +517,10 @@
         <v>123.28467559814453</v>
       </c>
       <c r="B41" s="0">
-        <v>0.11539715528488159</v>
+        <v>0.08616231381893158</v>
       </c>
       <c r="C41" s="0">
-        <v>0.15943217277526855</v>
+        <v>0.14923751354217529</v>
       </c>
     </row>
     <row r="42">
@@ -528,10 +528,10 @@
         <v>141.74742126464844</v>
       </c>
       <c r="B42" s="0">
-        <v>0.075804881751537323</v>
+        <v>0.090176895260810852</v>
       </c>
       <c r="C42" s="0">
-        <v>0.11855993419885635</v>
+        <v>0.15619096159934998</v>
       </c>
     </row>
     <row r="43">
@@ -539,10 +539,10 @@
         <v>162.97508239746094</v>
       </c>
       <c r="B43" s="0">
-        <v>0.058574054390192032</v>
+        <v>0.097623430192470551</v>
       </c>
       <c r="C43" s="0">
-        <v>0.10833223164081573</v>
+        <v>0.13324242830276489</v>
       </c>
     </row>
     <row r="44">
@@ -550,10 +550,10 @@
         <v>187.38174438476563</v>
       </c>
       <c r="B44" s="0">
-        <v>0.19973272085189819</v>
+        <v>0.33288782835006714</v>
       </c>
       <c r="C44" s="0">
-        <v>0.34960198402404785</v>
+        <v>0.42184650897979736</v>
       </c>
     </row>
     <row r="45">
@@ -561,10 +561,10 @@
         <v>215.44346618652344</v>
       </c>
       <c r="B45" s="0">
-        <v>0.47383537888526917</v>
+        <v>0.78972560167312622</v>
       </c>
       <c r="C45" s="0">
-        <v>0.9987519383430481</v>
+        <v>1.2731107473373413</v>
       </c>
     </row>
     <row r="46">
@@ -572,10 +572,10 @@
         <v>247.7076416015625</v>
       </c>
       <c r="B46" s="0">
-        <v>0.79557228088378906</v>
+        <v>1.3259538412094116</v>
       </c>
       <c r="C46" s="0">
-        <v>1.7588121891021729</v>
+        <v>2.2653806209564209</v>
       </c>
     </row>
     <row r="47">
@@ -583,10 +583,10 @@
         <v>284.8035888671875</v>
       </c>
       <c r="B47" s="0">
-        <v>1.0535057783126831</v>
+        <v>1.755842924118042</v>
       </c>
       <c r="C47" s="0">
-        <v>2.355710506439209</v>
+        <v>3.0412089824676514</v>
       </c>
     </row>
     <row r="48">
@@ -594,10 +594,10 @@
         <v>327.45492553710938</v>
       </c>
       <c r="B48" s="0">
-        <v>1.1893458366394043</v>
+        <v>1.9286437034606934</v>
       </c>
       <c r="C48" s="0">
-        <v>2.5562412738800049</v>
+        <v>3.3185341358184814</v>
       </c>
     </row>
     <row r="49">
@@ -605,10 +605,10 @@
         <v>376.49356079101563</v>
       </c>
       <c r="B49" s="0">
-        <v>1.3221031427383423</v>
+        <v>1.795910120010376</v>
       </c>
       <c r="C49" s="0">
-        <v>2.2463128566741943</v>
+        <v>2.9792938232421875</v>
       </c>
     </row>
     <row r="50">
@@ -616,10 +616,10 @@
         <v>432.87612915039063</v>
       </c>
       <c r="B50" s="0">
-        <v>1.4762786626815796</v>
+        <v>1.4694110155105591</v>
       </c>
       <c r="C50" s="0">
-        <v>1.8077164888381958</v>
+        <v>2.0798029899597168</v>
       </c>
     </row>
     <row r="51">
@@ -627,10 +627,10 @@
         <v>497.70233154296875</v>
       </c>
       <c r="B51" s="0">
-        <v>1.8052928447723389</v>
+        <v>1.1720955371856689</v>
       </c>
       <c r="C51" s="0">
-        <v>1.7492172718048096</v>
+        <v>0.843402624130249</v>
       </c>
     </row>
     <row r="52">
@@ -638,10 +638,10 @@
         <v>572.23681640625</v>
       </c>
       <c r="B52" s="0">
-        <v>2.2752935886383057</v>
+        <v>1.061733603477478</v>
       </c>
       <c r="C52" s="0">
-        <v>2.0599982738494873</v>
+        <v>0.36177638173103333</v>
       </c>
     </row>
     <row r="53">
@@ -649,10 +649,10 @@
         <v>657.9332275390625</v>
       </c>
       <c r="B53" s="0">
-        <v>2.738652229309082</v>
+        <v>1.1856088638305664</v>
       </c>
       <c r="C53" s="0">
-        <v>2.3061628341674805</v>
+        <v>1.10057532787323</v>
       </c>
     </row>
     <row r="54">
@@ -660,10 +660,10 @@
         <v>756.46337890625</v>
       </c>
       <c r="B54" s="0">
-        <v>2.9819221496582031</v>
+        <v>1.4081041812896729</v>
       </c>
       <c r="C54" s="0">
-        <v>2.4281566143035889</v>
+        <v>1.3246496915817261</v>
       </c>
     </row>
     <row r="55">
@@ -671,10 +671,10 @@
         <v>869.74896240234375</v>
       </c>
       <c r="B55" s="0">
-        <v>2.7884800434112549</v>
+        <v>1.4190545082092285</v>
       </c>
       <c r="C55" s="0">
-        <v>2.6099882125854492</v>
+        <v>1.3153784275054932</v>
       </c>
     </row>
     <row r="56">
@@ -682,10 +682,10 @@
         <v>1000</v>
       </c>
       <c r="B56" s="0">
-        <v>2.2381258010864258</v>
+        <v>1.212550163269043</v>
       </c>
       <c r="C56" s="0">
-        <v>2.5758969783782959</v>
+        <v>1.0802453756332397</v>
       </c>
     </row>
     <row r="57">
@@ -693,10 +693,10 @@
         <v>1149.7569580078125</v>
       </c>
       <c r="B57" s="0">
-        <v>1.5315244197845459</v>
+        <v>0.86168420314788818</v>
       </c>
       <c r="C57" s="0">
-        <v>2.082592248916626</v>
+        <v>0.74770873785018921</v>
       </c>
     </row>
     <row r="58">
@@ -704,10 +704,10 @@
         <v>1321.941162109375</v>
       </c>
       <c r="B58" s="0">
-        <v>0.88177585601806641</v>
+        <v>0.49653580784797668</v>
       </c>
       <c r="C58" s="0">
-        <v>1.216550350189209</v>
+        <v>0.52241355180740356</v>
       </c>
     </row>
     <row r="59">
@@ -715,10 +715,10 @@
         <v>1519.9110107421875</v>
       </c>
       <c r="B59" s="0">
-        <v>0.34881016612052917</v>
+        <v>0.25098052620887756</v>
       </c>
       <c r="C59" s="0">
-        <v>0.48384672403335571</v>
+        <v>0.43214708566665649</v>
       </c>
     </row>
     <row r="60">
@@ -726,10 +726,10 @@
         <v>1747.5283203125</v>
       </c>
       <c r="B60" s="0">
-        <v>0.10824768245220184</v>
+        <v>0.18041279911994934</v>
       </c>
       <c r="C60" s="0">
-        <v>0.24204917252063751</v>
+        <v>0.31248411536216736</v>
       </c>
     </row>
     <row r="61">
@@ -737,10 +737,10 @@
         <v>2009.23291015625</v>
       </c>
       <c r="B61" s="0">
-        <v>0.093738004565238953</v>
+        <v>0.15623000264167786</v>
       </c>
       <c r="C61" s="0">
-        <v>0.20960453152656555</v>
+        <v>0.27059829235076904</v>
       </c>
     </row>
     <row r="62">
@@ -748,10 +748,10 @@
         <v>2310.129638671875</v>
       </c>
       <c r="B62" s="0">
-        <v>0.10938134789466858</v>
+        <v>0.18230223655700684</v>
       </c>
       <c r="C62" s="0">
-        <v>0.24458411335945129</v>
+        <v>0.31575673818588257</v>
       </c>
     </row>
     <row r="63">
@@ -759,10 +759,10 @@
         <v>2656.087890625</v>
       </c>
       <c r="B63" s="0">
-        <v>0.23395751416683197</v>
+        <v>0.38992920517921448</v>
       </c>
       <c r="C63" s="0">
-        <v>0.33983016014099121</v>
+        <v>0.37382104992866516</v>
       </c>
     </row>
     <row r="64">
@@ -770,10 +770,10 @@
         <v>3053.855712890625</v>
       </c>
       <c r="B64" s="0">
-        <v>0.53009015321731567</v>
+        <v>0.88348358869552612</v>
       </c>
       <c r="C64" s="0">
-        <v>0.76276355981826782</v>
+        <v>0.83384084701538086</v>
       </c>
     </row>
     <row r="65">
@@ -781,10 +781,10 @@
         <v>3511.19189453125</v>
       </c>
       <c r="B65" s="0">
-        <v>0.90195369720458984</v>
+        <v>1.5032562017440796</v>
       </c>
       <c r="C65" s="0">
-        <v>1.4423625469207764</v>
+        <v>1.6747992038726807</v>
       </c>
     </row>
     <row r="66">
@@ -792,10 +792,10 @@
         <v>4037.017333984375</v>
       </c>
       <c r="B66" s="0">
-        <v>1.1933627128601074</v>
+        <v>1.9889378547668457</v>
       </c>
       <c r="C66" s="0">
-        <v>2.0291330814361572</v>
+        <v>2.4209990501403809</v>
       </c>
     </row>
     <row r="67">
@@ -803,10 +803,10 @@
         <v>4641.5888671875</v>
       </c>
       <c r="B67" s="0">
-        <v>1.4615943431854248</v>
+        <v>2.1215076446533203</v>
       </c>
       <c r="C67" s="0">
-        <v>2.146977424621582</v>
+        <v>2.7135639190673828</v>
       </c>
     </row>
     <row r="68">
@@ -814,10 +814,10 @@
         <v>5336.69921875</v>
       </c>
       <c r="B68" s="0">
-        <v>1.6867078542709351</v>
+        <v>1.8239263296127319</v>
       </c>
       <c r="C68" s="0">
-        <v>2.0081098079681396</v>
+        <v>2.4086086750030518</v>
       </c>
     </row>
     <row r="69">
@@ -825,10 +825,10 @@
         <v>6135.9072265625</v>
       </c>
       <c r="B69" s="0">
-        <v>1.7898613214492798</v>
+        <v>1.2030737400054932</v>
       </c>
       <c r="C69" s="0">
-        <v>2.3533477783203125</v>
+        <v>1.6297746896743774</v>
       </c>
     </row>
     <row r="70">
@@ -836,10 +836,10 @@
         <v>7054.80224609375</v>
       </c>
       <c r="B70" s="0">
-        <v>1.7372605800628662</v>
+        <v>0.51888000965118408</v>
       </c>
       <c r="C70" s="0">
-        <v>3.0493941307067871</v>
+        <v>0.72560840845108032</v>
       </c>
     </row>
     <row r="71">
@@ -847,10 +847,10 @@
         <v>8111.30859375</v>
       </c>
       <c r="B71" s="0">
-        <v>2.0701873302459717</v>
+        <v>0.200624480843544</v>
       </c>
       <c r="C71" s="0">
-        <v>3.1619482040405273</v>
+        <v>0.18811064958572388</v>
       </c>
     </row>
     <row r="72">
@@ -858,10 +858,10 @@
         <v>9326.033203125</v>
       </c>
       <c r="B72" s="0">
-        <v>2.8871440887451172</v>
+        <v>0.53621417284011841</v>
       </c>
       <c r="C72" s="0">
-        <v>3.286196231842041</v>
+        <v>0.92875027656555176</v>
       </c>
     </row>
   </sheetData>
